--- a/doc/02_DB定義書_コーヒー牛乳.xlsx
+++ b/doc/02_DB定義書_コーヒー牛乳.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087E6892-58CB-4C93-8E4D-7132F2F681AC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9061F6-ECF0-4C9D-B0CD-33FB4E13F4CC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="130">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -343,9 +343,6 @@
   <si>
     <t>pet_id</t>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>varbinary</t>
   </si>
   <si>
     <t>一人の飼い主が持てるペットのIDは５つまで</t>
@@ -1233,8 +1230,8 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1313,10 +1310,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>30</v>
@@ -1331,7 +1328,7 @@
         <v>31</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>30</v>
@@ -1346,7 +1343,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>30</v>
@@ -1361,7 +1358,7 @@
         <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>30</v>
@@ -1376,7 +1373,7 @@
         <v>33</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>30</v>
@@ -1391,7 +1388,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>30</v>
@@ -1406,7 +1403,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>30</v>
@@ -1698,7 +1695,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -1710,7 +1707,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -1758,10 +1755,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>23</v>
@@ -2172,7 +2169,7 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B37" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2186,10 +2183,10 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
@@ -2197,10 +2194,10 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2281,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2329,10 +2326,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -2360,7 +2357,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>41</v>
@@ -2388,7 +2385,7 @@
         <v>47</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -2416,10 +2413,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2429,7 +2426,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2444,7 +2441,7 @@
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -2470,7 +2467,7 @@
         <v>50</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>41</v>
@@ -2496,7 +2493,7 @@
         <v>51</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>41</v>
@@ -2522,7 +2519,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>41</v>
@@ -2774,8 +2771,8 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2841,7 +2838,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -2889,10 +2886,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -2917,10 +2914,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>22</v>
@@ -2933,7 +2930,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -2945,10 +2942,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>41</v>
@@ -2971,13 +2968,13 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2987,7 +2984,7 @@
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L13" t="str">
         <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
@@ -2999,10 +2996,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>41</v>
@@ -3025,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3043,7 +3040,7 @@
       <c r="J15" s="3"/>
       <c r="L15" t="str">
         <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>picture varbinary ,</v>
+        <v>picture varchar ,</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -3051,13 +3048,13 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3314,6 +3311,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3389,7 +3387,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3437,10 +3435,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>22</v>
@@ -3453,7 +3451,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3465,13 +3463,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3893,7 +3891,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -3941,13 +3939,13 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="3">
         <v>1</v>
@@ -3959,7 +3957,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
@@ -3971,13 +3969,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -3985,7 +3983,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4399,7 +4397,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4447,10 +4445,10 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>41</v>
@@ -4475,13 +4473,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E11" s="3">
         <v>1</v>
@@ -4493,7 +4491,7 @@
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -4505,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>22</v>
@@ -4531,10 +4529,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>22</v>
@@ -4559,13 +4557,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -5026,12 +5024,12 @@
         <v>44</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
@@ -5369,10 +5367,10 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>39</v>
@@ -5383,7 +5381,7 @@
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.2">
@@ -5391,21 +5389,21 @@
         <v>2</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
         <v>39</v>
       </c>
       <c r="E39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.2">
@@ -5413,10 +5411,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.2">
@@ -5424,10 +5422,10 @@
         <v>2</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.2">
@@ -5435,10 +5433,10 @@
         <v>3</v>
       </c>
       <c r="D42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.2">
@@ -5446,10 +5444,10 @@
         <v>4</v>
       </c>
       <c r="D43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.2">
@@ -5457,10 +5455,10 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.2">
@@ -5468,10 +5466,10 @@
         <v>6</v>
       </c>
       <c r="D45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.2">
@@ -5479,16 +5477,16 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>52</v>
       </c>
       <c r="E48" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.2">
@@ -5499,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.2">
@@ -5510,7 +5508,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.2">
@@ -5521,7 +5519,7 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.2">
@@ -5556,7 +5554,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.2">
@@ -5564,10 +5562,10 @@
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D57" t="s">
         <v>39</v>
@@ -5578,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.2">
@@ -5586,7 +5584,7 @@
         <v>2</v>
       </c>
       <c r="D59" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.2">
@@ -5594,13 +5592,13 @@
         <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D61" t="s">
         <v>39</v>
       </c>
       <c r="E61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.2">
@@ -5608,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -5619,7 +5617,7 @@
         <v>2</v>
       </c>
       <c r="D63" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -5630,7 +5628,7 @@
         <v>3</v>
       </c>
       <c r="D64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -5641,7 +5639,7 @@
         <v>4</v>
       </c>
       <c r="D65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E65">
         <v>4</v>
@@ -5652,7 +5650,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E66">
         <v>5</v>
@@ -5663,7 +5661,7 @@
         <v>6</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E67" s="7">
         <v>1</v>
@@ -5674,10 +5672,10 @@
         <v>31</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="2:5" x14ac:dyDescent="0.2">
@@ -5685,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="71" spans="2:5" x14ac:dyDescent="0.2">
@@ -5693,7 +5691,7 @@
         <v>2</v>
       </c>
       <c r="D71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="2:5" x14ac:dyDescent="0.2">
@@ -5701,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="D72" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="2:5" x14ac:dyDescent="0.2">
@@ -5709,7 +5707,7 @@
         <v>4</v>
       </c>
       <c r="D73" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="2:5" x14ac:dyDescent="0.2">
@@ -5717,7 +5715,7 @@
         <v>5</v>
       </c>
       <c r="D74" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
